--- a/data/processed/unmatched_columns/unmatched_湖南体育职业学院.xlsx
+++ b/data/processed/unmatched_columns/unmatched_湖南体育职业学院.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>学费
-（元/年）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -469,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -491,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -513,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -535,11 +514,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>注：运动训练专业以上专业方向为现代学徒制“教练员班”模式，考生报名参加考试，成绩合格达到录取条件后需与学校以及企业签订三方协议进行录取确认，未按要求进行录取确认的考生视作放弃录取。具体对接企业以及协议内容见我校单独招生网https://zs.hntyxy.net/p63/index.html。</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -557,11 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -579,11 +548,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -601,11 +565,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -623,11 +582,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>注：运动训练专业政府专职消防员各方向，考生除参加专项考试，还需进行1000米跑和引体向上两个项目的测试，测试方法和评分标准见我校单独招生网https://www.hntyxy.net/dzw.jhtml。</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -645,11 +599,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -667,11 +616,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -689,11 +633,6 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -711,11 +650,6 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -733,11 +667,6 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -755,11 +684,6 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -777,11 +701,6 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>注：运动训练专业以上专业方向需具备该项目市级比赛或以上级别赛事前八名成绩，报考考生需在2月26日24：00前将成绩证明材料以“姓名＋身份证号”命名发送至邮箱413918393@qq.com，未按要求发送成绩证明材料的将被调整至其它专业进行考试和录取。</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -799,11 +718,6 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -821,11 +735,6 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -843,11 +752,6 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -865,11 +769,6 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -887,11 +786,6 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -909,11 +803,6 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>注：报考运动训练（专项素质训练）的考生，需具备省运会前三名、全国青少年锦标赛前六名运动成绩或一级运动员等级证书，报考考生需在2月26日24：00前将成绩证明材料或运动员等级证书以“姓名＋身份证号”命名发送至邮箱413918393@qq.com，未按要求发送将被调整至其它专业进行考试和录取。</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -931,11 +820,6 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -953,11 +837,6 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -975,11 +854,6 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -997,11 +871,6 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1019,11 +888,6 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1041,11 +905,6 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1063,11 +922,6 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1085,11 +939,6 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1107,11 +956,6 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1129,11 +973,6 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1151,11 +990,6 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1173,11 +1007,6 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1195,11 +1024,6 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
       </c>
@@ -1210,17 +1034,8 @@
           <t>健身指导与管理</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1232,17 +1047,8 @@
           <t>体育保健与康复</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1254,17 +1060,8 @@
           <t>体能训练</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1276,17 +1073,8 @@
           <t>高尔夫球运动与管理</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1298,17 +1086,8 @@
           <t>国际标准舞</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
-        <is>
-          <t>7500</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1320,17 +1099,8 @@
           <t>电子竞技运动与管理</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
@@ -1342,17 +1112,8 @@
           <t>融媒体技术与运营</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>轮滑</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t>湖南体育职业学院.xlsx</t>
         </is>
